--- a/biology/Médecine/Funiculite/Funiculite.xlsx
+++ b/biology/Médecine/Funiculite/Funiculite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Funiculite est un terme médical [1] ancien et polysémique qui peut à la fois désigner :
-L'inflammation du cordon spermatique[2], qui chez l'homme[3] ou l'animal d'élevage était souvent une conséquence secondaire de la castration[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Funiculite est un terme médical  ancien et polysémique qui peut à la fois désigner :
+L'inflammation du cordon spermatique, qui chez l'homme ou l'animal d'élevage était souvent une conséquence secondaire de la castration
 L'inflammation du cordon ombilical.
-Inflammation d'une racine nerveuse (funicule) dans son trajet intrarachidien (funiculite vertébrale)[5].
+Inflammation d'une racine nerveuse (funicule) dans son trajet intrarachidien (funiculite vertébrale).
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Prévalence géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les funiculites sont souvent tropicales. 
-La funiculite endémique est une affection particulière observée dans le sud de l'Inde et à Ceylan, caractérisée par une inflammation du cordon spermatique avec atteinte grave de l'état général évoluant vers une septicémie[6],  décrite par Aldo Castellani (it) en 1908[7].
-Éventuellement nécrotique[8], elle peut être associée à une maladie vénérienne[9] (gonorrhée ou blennorragie)[10] ou causée par une Filariose[11] ou bilharziose[12]
+La funiculite endémique est une affection particulière observée dans le sud de l'Inde et à Ceylan, caractérisée par une inflammation du cordon spermatique avec atteinte grave de l'état général évoluant vers une septicémie,  décrite par Aldo Castellani (it) en 1908.
+Éventuellement nécrotique, elle peut être associée à une maladie vénérienne (gonorrhée ou blennorragie) ou causée par une Filariose ou bilharziose
 </t>
         </is>
       </c>
